--- a/filmek.xlsx
+++ b/filmek.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E20F03-18CA-4101-994B-D6811CF75D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233BEED-7A4F-4A21-B122-74CDF5237013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
     <t>A Gyűrűk Ura: A gyűrű szövetsége</t>
   </si>
   <si>
-    <t>New Line Cinema</t>
+    <t>New Line Cinema, warner</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/filmek.xlsx
+++ b/filmek.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233BEED-7A4F-4A21-B122-74CDF5237013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A1468-4585-4982-8621-F0DE295A7A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>cím</t>
   </si>
@@ -68,6 +70,9 @@
   </si>
   <si>
     <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               </t>
   </si>
 </sst>
 </file>
@@ -387,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,4 +457,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9DDEC9-E612-42A1-BBCC-84E46BA7612F}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA1C339-99D7-45E3-8C50-19F8C29CA609}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>